--- a/Optimization Models/stochastic_optimization/stochastic_programming/Likely2HappenScenarios.xlsx
+++ b/Optimization Models/stochastic_optimization/stochastic_programming/Likely2HappenScenarios.xlsx
@@ -13,6 +13,9 @@
     <sheet name="Drive" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Drive!$A$1:$Z$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ParkAway!$A$1:$Z$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ParkHome!$A$1:$Z$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Raw Data'!$A$1:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="41">
   <si>
     <t>ParkAtHome</t>
   </si>
@@ -126,82 +129,28 @@
     <t>EarlyLeaveShortCommuteEarlyArrival</t>
   </si>
   <si>
-    <t>EarlyLeaveMedCommuteEarlyArrival</t>
-  </si>
-  <si>
-    <t>EarlyLeaveLongCommuteEarlyArrival</t>
-  </si>
-  <si>
     <t>EarlyLeaveShortCommuteNormalArrival</t>
-  </si>
-  <si>
-    <t>EarlyLeaveMedCommuteNormalArrival</t>
-  </si>
-  <si>
-    <t>EarlyLeaveLongCommuteNormalArrival</t>
   </si>
   <si>
     <t>EarlyLeaveShortCommuteLateArrival</t>
   </si>
   <si>
-    <t>EarlyLeaveMedCommuteLateArrival</t>
-  </si>
-  <si>
-    <t>EarlyLeaveLongCommuteLateArrival</t>
-  </si>
-  <si>
     <t>NormalLeaveShortCommuteEarlyArrival</t>
-  </si>
-  <si>
-    <t>NormalLeaveMedCommuteEarlyArrival</t>
-  </si>
-  <si>
-    <t>NormalLeaveLongCommuteEarlyArrival</t>
   </si>
   <si>
     <t>NormalLeaveShortCommuteNormalArrival</t>
   </si>
   <si>
-    <t>NormalLeaveMedCommuteNormalArrival</t>
-  </si>
-  <si>
-    <t>NormalLeaveLongCommuteNormalArrival</t>
-  </si>
-  <si>
     <t>NormalLeaveShortCommuteLateArrival</t>
-  </si>
-  <si>
-    <t>NormalLeaveMedCommuteLateArrival</t>
-  </si>
-  <si>
-    <t>NormalLeaveLongCommuteLateArrival</t>
   </si>
   <si>
     <t>LateLeaveShortCommuteEarlyArrival</t>
   </si>
   <si>
-    <t>LateLeaveMedCommuteEarlyArrival</t>
-  </si>
-  <si>
-    <t>LateLeaveLongCommuteEarlyArrival</t>
-  </si>
-  <si>
     <t>LateLeaveShortCommuteNormalArrival</t>
   </si>
   <si>
-    <t>LateLeaveMedCommuteNormalArrival</t>
-  </si>
-  <si>
-    <t>LateLeaveLongCommuteNormalArrival</t>
-  </si>
-  <si>
     <t>LateLeaveShortCommuteLateArrival</t>
-  </si>
-  <si>
-    <t>LateLeaveMedCommuteLateArrival</t>
-  </si>
-  <si>
-    <t>LateLeaveLongCommuteLateArrival</t>
   </si>
 </sst>
 </file>
@@ -7102,10 +7051,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z28"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A28"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7326,10 +7275,10 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -7406,16 +7355,16 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>1</v>
@@ -7459,10 +7408,10 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -7486,10 +7435,10 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -7539,10 +7488,10 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -7619,10 +7568,10 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -7652,10 +7601,10 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>1</v>
@@ -7699,16 +7648,16 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -7726,16 +7675,16 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
         <v>1</v>
@@ -7779,16 +7728,16 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -7812,10 +7761,10 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9">
         <v>1</v>
@@ -7841,22 +7790,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -7868,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -7913,1460 +7862,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
-        <v>1</v>
-      </c>
-      <c r="V11">
-        <v>1</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
-      <c r="X11">
-        <v>1</v>
-      </c>
-      <c r="Y11">
-        <v>1</v>
-      </c>
-      <c r="Z11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
-      <c r="V12">
-        <v>1</v>
-      </c>
-      <c r="W12">
-        <v>1</v>
-      </c>
-      <c r="X12">
-        <v>1</v>
-      </c>
-      <c r="Y12">
-        <v>1</v>
-      </c>
-      <c r="Z12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>1</v>
-      </c>
-      <c r="V13">
-        <v>1</v>
-      </c>
-      <c r="W13">
-        <v>1</v>
-      </c>
-      <c r="X13">
-        <v>1</v>
-      </c>
-      <c r="Y13">
-        <v>1</v>
-      </c>
-      <c r="Z13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <v>1</v>
-      </c>
-      <c r="V14">
-        <v>1</v>
-      </c>
-      <c r="W14">
-        <v>1</v>
-      </c>
-      <c r="X14">
-        <v>1</v>
-      </c>
-      <c r="Y14">
-        <v>1</v>
-      </c>
-      <c r="Z14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <v>1</v>
-      </c>
-      <c r="V15">
-        <v>1</v>
-      </c>
-      <c r="W15">
-        <v>1</v>
-      </c>
-      <c r="X15">
-        <v>1</v>
-      </c>
-      <c r="Y15">
-        <v>1</v>
-      </c>
-      <c r="Z15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="U16">
-        <v>1</v>
-      </c>
-      <c r="V16">
-        <v>1</v>
-      </c>
-      <c r="W16">
-        <v>1</v>
-      </c>
-      <c r="X16">
-        <v>1</v>
-      </c>
-      <c r="Y16">
-        <v>1</v>
-      </c>
-      <c r="Z16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>1</v>
-      </c>
-      <c r="W17">
-        <v>1</v>
-      </c>
-      <c r="X17">
-        <v>1</v>
-      </c>
-      <c r="Y17">
-        <v>1</v>
-      </c>
-      <c r="Z17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>1</v>
-      </c>
-      <c r="W18">
-        <v>1</v>
-      </c>
-      <c r="X18">
-        <v>1</v>
-      </c>
-      <c r="Y18">
-        <v>1</v>
-      </c>
-      <c r="Z18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>1</v>
-      </c>
-      <c r="W19">
-        <v>1</v>
-      </c>
-      <c r="X19">
-        <v>1</v>
-      </c>
-      <c r="Y19">
-        <v>1</v>
-      </c>
-      <c r="Z19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
-      <c r="V20">
-        <v>1</v>
-      </c>
-      <c r="W20">
-        <v>1</v>
-      </c>
-      <c r="X20">
-        <v>1</v>
-      </c>
-      <c r="Y20">
-        <v>1</v>
-      </c>
-      <c r="Z20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>1</v>
-      </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
-      <c r="W21">
-        <v>1</v>
-      </c>
-      <c r="X21">
-        <v>1</v>
-      </c>
-      <c r="Y21">
-        <v>1</v>
-      </c>
-      <c r="Z21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>1</v>
-      </c>
-      <c r="S22">
-        <v>1</v>
-      </c>
-      <c r="T22">
-        <v>1</v>
-      </c>
-      <c r="U22">
-        <v>1</v>
-      </c>
-      <c r="V22">
-        <v>1</v>
-      </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
-      <c r="X22">
-        <v>1</v>
-      </c>
-      <c r="Y22">
-        <v>1</v>
-      </c>
-      <c r="Z22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>1</v>
-      </c>
-      <c r="U23">
-        <v>1</v>
-      </c>
-      <c r="V23">
-        <v>1</v>
-      </c>
-      <c r="W23">
-        <v>1</v>
-      </c>
-      <c r="X23">
-        <v>1</v>
-      </c>
-      <c r="Y23">
-        <v>1</v>
-      </c>
-      <c r="Z23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
-      <c r="U24">
-        <v>1</v>
-      </c>
-      <c r="V24">
-        <v>1</v>
-      </c>
-      <c r="W24">
-        <v>1</v>
-      </c>
-      <c r="X24">
-        <v>1</v>
-      </c>
-      <c r="Y24">
-        <v>1</v>
-      </c>
-      <c r="Z24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>1</v>
-      </c>
-      <c r="U25">
-        <v>1</v>
-      </c>
-      <c r="V25">
-        <v>1</v>
-      </c>
-      <c r="W25">
-        <v>1</v>
-      </c>
-      <c r="X25">
-        <v>1</v>
-      </c>
-      <c r="Y25">
-        <v>1</v>
-      </c>
-      <c r="Z25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <v>1</v>
-      </c>
-      <c r="X26">
-        <v>1</v>
-      </c>
-      <c r="Y26">
-        <v>1</v>
-      </c>
-      <c r="Z26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>1</v>
-      </c>
-      <c r="W27">
-        <v>1</v>
-      </c>
-      <c r="X27">
-        <v>1</v>
-      </c>
-      <c r="Y27">
-        <v>1</v>
-      </c>
-      <c r="Z27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>1</v>
-      </c>
-      <c r="W28">
-        <v>1</v>
-      </c>
-      <c r="X28">
-        <v>1</v>
-      </c>
-      <c r="Y28">
-        <v>1</v>
-      </c>
-      <c r="Z28">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:Z10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z28"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A28"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -9578,10 +8091,10 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -9658,16 +8171,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -9717,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -9738,10 +8251,10 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -9797,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -9877,10 +8390,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -9904,10 +8417,10 @@
         <v>1</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -9957,16 +8470,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -9978,16 +8491,16 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -10037,16 +8550,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -10064,10 +8577,10 @@
         <v>1</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -10117,16 +8630,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -10168,1457 +8681,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22">
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>1</v>
-      </c>
-      <c r="P23">
-        <v>1</v>
-      </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
-      <c r="R23">
-        <v>1</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>1</v>
-      </c>
-      <c r="P24">
-        <v>1</v>
-      </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-      <c r="R24">
-        <v>1</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="R25">
-        <v>1</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-      <c r="R26">
-        <v>1</v>
-      </c>
-      <c r="S26">
-        <v>1</v>
-      </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-      <c r="P27">
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-      <c r="R27">
-        <v>1</v>
-      </c>
-      <c r="S27">
-        <v>1</v>
-      </c>
-      <c r="T27">
-        <v>1</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>1</v>
-      </c>
-      <c r="P28">
-        <v>1</v>
-      </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-      <c r="R28">
-        <v>1</v>
-      </c>
-      <c r="S28">
-        <v>1</v>
-      </c>
-      <c r="T28">
-        <v>1</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:Z10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z28"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11812,7 +8886,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -11836,13 +8910,13 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -11892,7 +8966,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -11916,7 +8990,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -11928,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -11972,14 +9046,14 @@
         <v>0</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>5</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
         <v>0</v>
       </c>
@@ -11996,13 +9070,13 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -12052,13 +9126,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -12082,7 +9156,7 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -12132,13 +9206,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -12162,13 +9236,13 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -12212,32 +9286,32 @@
         <v>0</v>
       </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>5</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
       <c r="R8">
         <v>0</v>
       </c>
@@ -12248,7 +9322,7 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -12292,7 +9366,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -12322,13 +9396,13 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -12372,7 +9446,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -12408,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -12426,1447 +9500,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>5</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>5</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>10</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>10</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>15</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>15</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>5</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>5</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>10</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>10</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>15</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>15</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>5</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>5</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>10</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>10</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>15</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>15</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>5</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>10</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>15</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>5</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>10</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>15</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>5</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>10</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>15</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:Z10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Optimization Models/stochastic_optimization/stochastic_programming/Likely2HappenScenarios.xlsx
+++ b/Optimization Models/stochastic_optimization/stochastic_programming/Likely2HappenScenarios.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="2" r:id="rId1"/>
     <sheet name="ParkHome" sheetId="4" r:id="rId2"/>
     <sheet name="ParkAway" sheetId="5" r:id="rId3"/>
     <sheet name="Drive" sheetId="3" r:id="rId4"/>
+    <sheet name="Deterministic" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Drive!$A$1:$Z$10</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="45">
   <si>
     <t>ParkAtHome</t>
   </si>
@@ -151,6 +152,18 @@
   </si>
   <si>
     <t>LateLeaveShortCommuteLateArrival</t>
+  </si>
+  <si>
+    <t>P_Load_Forecast</t>
+  </si>
+  <si>
+    <t>P_PV_Forecast</t>
+  </si>
+  <si>
+    <t>Price_Forecast</t>
+  </si>
+  <si>
+    <t>Paramter</t>
   </si>
 </sst>
 </file>
@@ -473,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5851,31 +5864,31 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68">
         <v>1</v>
@@ -6091,31 +6104,31 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -6331,31 +6344,31 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -7053,8 +7066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7790,31 +7803,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -7872,7 +7885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -8691,8 +8704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9504,4 +9517,330 @@
   <autoFilter ref="A1:Z10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="C2">
+        <v>9.06E-2</v>
+      </c>
+      <c r="D2">
+        <v>9.06E-2</v>
+      </c>
+      <c r="E2">
+        <v>7.0066666999999999E-2</v>
+      </c>
+      <c r="F2">
+        <v>7.7533332999999996E-2</v>
+      </c>
+      <c r="G2">
+        <v>9.06E-2</v>
+      </c>
+      <c r="H2">
+        <v>9.06E-2</v>
+      </c>
+      <c r="I2">
+        <v>0.10935</v>
+      </c>
+      <c r="J2">
+        <v>0.38135000000000002</v>
+      </c>
+      <c r="K2">
+        <v>1.4737166669999999</v>
+      </c>
+      <c r="L2">
+        <v>0.98818333300000005</v>
+      </c>
+      <c r="M2">
+        <v>2.4413</v>
+      </c>
+      <c r="N2">
+        <v>0.42159999999999997</v>
+      </c>
+      <c r="O2">
+        <v>0.21725</v>
+      </c>
+      <c r="P2">
+        <v>0.4536</v>
+      </c>
+      <c r="Q2">
+        <v>0.4899</v>
+      </c>
+      <c r="R2">
+        <v>9.2466667000000002E-2</v>
+      </c>
+      <c r="S2">
+        <v>8.8733332999999998E-2</v>
+      </c>
+      <c r="T2">
+        <v>9.06E-2</v>
+      </c>
+      <c r="U2">
+        <v>0.47475000000000001</v>
+      </c>
+      <c r="V2">
+        <v>0.48254999999999998</v>
+      </c>
+      <c r="W2">
+        <v>1.0518666670000001</v>
+      </c>
+      <c r="X2">
+        <v>1.2963166669999999</v>
+      </c>
+      <c r="Y2">
+        <v>0.20073333300000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1.1324851199999999</v>
+      </c>
+      <c r="K3">
+        <v>3.0167356160000001</v>
+      </c>
+      <c r="L3">
+        <v>4.8239799469999998</v>
+      </c>
+      <c r="M3">
+        <v>6.3298616389999998</v>
+      </c>
+      <c r="N3">
+        <v>7.0666310399999999</v>
+      </c>
+      <c r="O3">
+        <v>7.42742784</v>
+      </c>
+      <c r="P3">
+        <v>7.4201780350000002</v>
+      </c>
+      <c r="Q3">
+        <v>7.0772907839999997</v>
+      </c>
+      <c r="R3">
+        <v>5.99361984</v>
+      </c>
+      <c r="S3">
+        <v>4.0362734079999996</v>
+      </c>
+      <c r="T3">
+        <v>1.462618829</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>34.61</v>
+      </c>
+      <c r="C4">
+        <v>33.28</v>
+      </c>
+      <c r="D4">
+        <v>33.03</v>
+      </c>
+      <c r="E4">
+        <v>32.93</v>
+      </c>
+      <c r="F4">
+        <v>31.96</v>
+      </c>
+      <c r="G4">
+        <v>33.67</v>
+      </c>
+      <c r="H4">
+        <v>40.450000000000003</v>
+      </c>
+      <c r="I4">
+        <v>47.16</v>
+      </c>
+      <c r="J4">
+        <v>47.68</v>
+      </c>
+      <c r="K4">
+        <v>46.23</v>
+      </c>
+      <c r="L4">
+        <v>43.01</v>
+      </c>
+      <c r="M4">
+        <v>39.86</v>
+      </c>
+      <c r="N4">
+        <v>37.64</v>
+      </c>
+      <c r="O4">
+        <v>37.14</v>
+      </c>
+      <c r="P4">
+        <v>39.11</v>
+      </c>
+      <c r="Q4">
+        <v>41.91</v>
+      </c>
+      <c r="R4">
+        <v>44.11</v>
+      </c>
+      <c r="S4">
+        <v>48.02</v>
+      </c>
+      <c r="T4">
+        <v>51.65</v>
+      </c>
+      <c r="U4">
+        <v>48.73</v>
+      </c>
+      <c r="V4">
+        <v>43.56</v>
+      </c>
+      <c r="W4">
+        <v>38.31</v>
+      </c>
+      <c r="X4">
+        <v>37.659999999999997</v>
+      </c>
+      <c r="Y4">
+        <v>36.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>